--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58681.93523394818</v>
+        <v>11677705.11155568</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58681.93523394818</v>
+        <v>11677705.11155568</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219.9604203660578</v>
+        <v>14173.49221423323</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.9604203660578</v>
+        <v>14173.49221423323</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959474354.7434225</v>
+        <v>39804468.86761142</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8438.546345527941</v>
+        <v>950903.6951283826</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15820.53101480273</v>
+        <v>1737408.356397989</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23202.51568407751</v>
+        <v>2523913.017667598</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30618.46511847643</v>
+        <v>3313292.991511833</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38023.01091651173</v>
+        <v>4100403.641719706</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45427.55671454703</v>
+        <v>4887514.291927577</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52832.10251258232</v>
+        <v>5674624.942135446</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60236.64831061762</v>
+        <v>6461735.592343314</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67641.19410865291</v>
+        <v>7248846.242551182</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75045.73990668818</v>
+        <v>8035956.892759051</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82450.28570472344</v>
+        <v>8823067.542966925</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89822.00401073346</v>
+        <v>9607619.35070602</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97204.41322583439</v>
+        <v>10394298.64935421</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104586.8224409353</v>
+        <v>11180977.94800239</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111969.2316560362</v>
+        <v>11967657.24665058</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>396</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>377</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
